--- a/data/trans_orig/P57B3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1501</v>
+        <v>1558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9127</v>
+        <v>9248</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01305035554662093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004707831043608132</v>
+        <v>0.004887527370794947</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02862548758164034</v>
+        <v>0.02900429481974111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -762,19 +762,19 @@
         <v>5013</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2533</v>
+        <v>2567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8858</v>
+        <v>9166</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01586150382294878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008012866320989563</v>
+        <v>0.008122315139913926</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02802523647081217</v>
+        <v>0.02899928884952977</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>9174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5381</v>
+        <v>5188</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15229</v>
+        <v>15270</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0144497649678147</v>
+        <v>0.01444976496781471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008474838869254578</v>
+        <v>0.008170798473942855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02398621876354431</v>
+        <v>0.02405014591454543</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>314684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309718</v>
+        <v>309597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317344</v>
+        <v>317287</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.986949644453379</v>
+        <v>0.9869496444533792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9713745124183591</v>
+        <v>0.97099570518026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9952921689563918</v>
+        <v>0.995112472629205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>528</v>
@@ -833,19 +833,19 @@
         <v>311048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307203</v>
+        <v>306895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313528</v>
+        <v>313494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9841384961770512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9719747635291878</v>
+        <v>0.9710007111504726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9919871336790104</v>
+        <v>0.991877684860086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>854</v>
@@ -854,19 +854,19 @@
         <v>625732</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619677</v>
+        <v>619636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>629525</v>
+        <v>629718</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9855502350321852</v>
+        <v>0.9855502350321854</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9760137812364557</v>
+        <v>0.9759498540854545</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9915251611307453</v>
+        <v>0.9918292015260571</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>40884</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28156</v>
+        <v>28381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57379</v>
+        <v>56149</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07718086175952678</v>
+        <v>0.07718086175952675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05315242413258064</v>
+        <v>0.05357732100594001</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1083190179828873</v>
+        <v>0.1059980281571579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -979,19 +979,19 @@
         <v>55387</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43759</v>
+        <v>44001</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69169</v>
+        <v>68672</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1015691856014807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08024648332312011</v>
+        <v>0.08069015645046035</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1268426269929989</v>
+        <v>0.1259320240162723</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -1000,19 +1000,19 @@
         <v>96271</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79077</v>
+        <v>80317</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115680</v>
+        <v>121187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08955187637131683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07355749077233609</v>
+        <v>0.07471165022131324</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1076064882091997</v>
+        <v>0.1127286711068098</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>488835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472340</v>
+        <v>473570</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501563</v>
+        <v>501338</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9228191382404733</v>
+        <v>0.9228191382404732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8916809820171127</v>
+        <v>0.8940019718428421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9468475758674194</v>
+        <v>0.9464226789940599</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>640</v>
@@ -1050,19 +1050,19 @@
         <v>489924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>476142</v>
+        <v>476639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501552</v>
+        <v>501310</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8984308143985192</v>
+        <v>0.8984308143985195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8731573730070011</v>
+        <v>0.8740679759837277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9197535166768797</v>
+        <v>0.9193098435495398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>988</v>
@@ -1071,19 +1071,19 @@
         <v>978759</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>959350</v>
+        <v>953843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>995953</v>
+        <v>994713</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9104481236286831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8923935117908003</v>
+        <v>0.8872713288931902</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9264425092276642</v>
+        <v>0.9252883497786866</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>35420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26393</v>
+        <v>26317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46136</v>
+        <v>46763</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1120912693814412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08352298564313788</v>
+        <v>0.08328278060557277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1460018458282047</v>
+        <v>0.1479879293345995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -1196,19 +1196,19 @@
         <v>51024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40876</v>
+        <v>41271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61280</v>
+        <v>61761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1431720524969936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1146987723659478</v>
+        <v>0.115804479045856</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1719502417615167</v>
+        <v>0.173301700434291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -1217,19 +1217,19 @@
         <v>86444</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72768</v>
+        <v>73100</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101055</v>
+        <v>102433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1285651343452512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1082257493390256</v>
+        <v>0.1087197939984631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1502960622359505</v>
+        <v>0.1523456917727657</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>280573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>269857</v>
+        <v>269230</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289600</v>
+        <v>289676</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8879087306185589</v>
+        <v>0.8879087306185588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8539981541717953</v>
+        <v>0.8520120706654006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9164770143568618</v>
+        <v>0.916717219394427</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>448</v>
@@ -1267,19 +1267,19 @@
         <v>305357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295101</v>
+        <v>294620</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315505</v>
+        <v>315110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8568279475030063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8280497582384834</v>
+        <v>0.8266982995657092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8853012276340525</v>
+        <v>0.8841955209541439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>762</v>
@@ -1288,19 +1288,19 @@
         <v>585931</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571320</v>
+        <v>569942</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>599607</v>
+        <v>599275</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8714348656547489</v>
+        <v>0.8714348656547488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8497039377640497</v>
+        <v>0.8476543082272341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8917742506609745</v>
+        <v>0.891280206001537</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>18649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10581</v>
+        <v>10403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30332</v>
+        <v>31114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04997719897005557</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02835753068223623</v>
+        <v>0.02787904700426907</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08128876177385584</v>
+        <v>0.08338336485808961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1413,19 +1413,19 @@
         <v>36052</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27443</v>
+        <v>27602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50713</v>
+        <v>52072</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08580948237892752</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.065320122524981</v>
+        <v>0.06569803753213126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1207063619585395</v>
+        <v>0.123940021181859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -1434,19 +1434,19 @@
         <v>54701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41235</v>
+        <v>41606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72036</v>
+        <v>71201</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06895464797160611</v>
+        <v>0.06895464797160612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0519799505369309</v>
+        <v>0.05244800020806707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09080717459351362</v>
+        <v>0.08975524832697961</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>354496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342813</v>
+        <v>342031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362564</v>
+        <v>362742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9500228010299445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9187112382261445</v>
+        <v>0.9166166351419105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9716424693177639</v>
+        <v>0.9721209529957309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>540</v>
@@ -1484,19 +1484,19 @@
         <v>384085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369424</v>
+        <v>368065</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>392694</v>
+        <v>392535</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9141905176210725</v>
+        <v>0.9141905176210724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8792936380414609</v>
+        <v>0.876059978818141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.934679877475019</v>
+        <v>0.9343019624678688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>815</v>
@@ -1505,19 +1505,19 @@
         <v>738582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>721247</v>
+        <v>722082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752048</v>
+        <v>751677</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9310453520283938</v>
+        <v>0.9310453520283939</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9091928254064865</v>
+        <v>0.9102447516730203</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9480200494630691</v>
+        <v>0.9475519997919329</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>31043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23238</v>
+        <v>22587</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40414</v>
+        <v>41541</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.150939067583799</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1129901542230371</v>
+        <v>0.1098220219798732</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1965030376127334</v>
+        <v>0.2019845310555978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1630,19 +1630,19 @@
         <v>26613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20757</v>
+        <v>20949</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33631</v>
+        <v>34240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1173286177309273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09151088522313537</v>
+        <v>0.0923566368933315</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1482689821652891</v>
+        <v>0.1509538415648816</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1651,19 +1651,19 @@
         <v>57656</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47678</v>
+        <v>46752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69118</v>
+        <v>69706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1333116809949256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1102411328629024</v>
+        <v>0.1081008812238426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1598146972015239</v>
+        <v>0.1611743103453421</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>174622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165251</v>
+        <v>164124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182427</v>
+        <v>183078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.849060932416201</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8034969623872668</v>
+        <v>0.7980154689444022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.887009845776963</v>
+        <v>0.8901779780201267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>430</v>
@@ -1701,19 +1701,19 @@
         <v>200210</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193192</v>
+        <v>192583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206066</v>
+        <v>205874</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8826713822690726</v>
+        <v>0.8826713822690725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8517310178347109</v>
+        <v>0.8490461584351185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9084891147768647</v>
+        <v>0.9076433631066685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>667</v>
@@ -1722,19 +1722,19 @@
         <v>374832</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>363370</v>
+        <v>362782</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384810</v>
+        <v>385736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8666883190050744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8401853027984759</v>
+        <v>0.8388256896546575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8897588671370976</v>
+        <v>0.8918991187761572</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>43576</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34351</v>
+        <v>34608</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55919</v>
+        <v>54240</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1609718617149176</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1268950545880815</v>
+        <v>0.1278427831004514</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2065681488797876</v>
+        <v>0.2003643139839142</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -1847,19 +1847,19 @@
         <v>36700</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29459</v>
+        <v>29978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44300</v>
+        <v>44797</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1391459393139116</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1116930638257335</v>
+        <v>0.1136594470644067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1679614967481268</v>
+        <v>0.1698482643004339</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>161</v>
@@ -1868,19 +1868,19 @@
         <v>80276</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68292</v>
+        <v>68301</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94036</v>
+        <v>94642</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1502009475278975</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.127778115207778</v>
+        <v>0.127795935989647</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1759475002300899</v>
+        <v>0.1770801423212062</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>227131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214788</v>
+        <v>216467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236356</v>
+        <v>236099</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8390281382850825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7934318511202126</v>
+        <v>0.7996356860160857</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8731049454119184</v>
+        <v>0.8721572168995486</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>370</v>
@@ -1918,19 +1918,19 @@
         <v>227050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219450</v>
+        <v>218953</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>234291</v>
+        <v>233772</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8608540606860885</v>
+        <v>0.8608540606860883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8320385032518732</v>
+        <v>0.8301517356995659</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8883069361742664</v>
+        <v>0.8863405529355932</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>670</v>
@@ -1939,19 +1939,19 @@
         <v>454181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>440421</v>
+        <v>439815</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>466165</v>
+        <v>466156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8497990524721025</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8240524997699101</v>
+        <v>0.8229198576787938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8722218847922221</v>
+        <v>0.8722040640103533</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>61387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46141</v>
+        <v>46452</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81778</v>
+        <v>79348</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08529660778356381</v>
+        <v>0.08529660778356382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06411256680676082</v>
+        <v>0.06454431808332985</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1136295766511163</v>
+        <v>0.1102534265174802</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -2064,19 +2064,19 @@
         <v>74438</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59814</v>
+        <v>59906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91389</v>
+        <v>91126</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09676573377359042</v>
+        <v>0.09676573377359038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07775410456416963</v>
+        <v>0.07787495631876322</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1188007425105957</v>
+        <v>0.1184581598358543</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -2085,19 +2085,19 @@
         <v>135825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115181</v>
+        <v>114867</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161125</v>
+        <v>162443</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09122211476795872</v>
+        <v>0.09122211476795873</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0773572283071095</v>
+        <v>0.07714634558542251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1082138345546562</v>
+        <v>0.1090991796721187</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>658300</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637909</v>
+        <v>640339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>673546</v>
+        <v>673235</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9147033922164364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8863704233488833</v>
+        <v>0.8897465734825195</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9358874331932392</v>
+        <v>0.9354556819166699</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>862</v>
@@ -2135,19 +2135,19 @@
         <v>694827</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>677876</v>
+        <v>678139</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>709451</v>
+        <v>709359</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9032342662264096</v>
+        <v>0.9032342662264093</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8811992574894042</v>
+        <v>0.8815418401641457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9222458954358298</v>
+        <v>0.9221250436812367</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1405</v>
@@ -2156,19 +2156,19 @@
         <v>1353127</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1327827</v>
+        <v>1326509</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1373771</v>
+        <v>1374085</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9087778852320413</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8917861654453438</v>
+        <v>0.8909008203278813</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9226427716928906</v>
+        <v>0.9228536544145775</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>181919</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157109</v>
+        <v>159454</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205780</v>
+        <v>205272</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2282785567131293</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1971457760912618</v>
+        <v>0.200087759268656</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.258219660797199</v>
+        <v>0.2575828299589526</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>308</v>
@@ -2281,19 +2281,19 @@
         <v>219580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>198555</v>
+        <v>198516</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>242065</v>
+        <v>240913</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2641307915542618</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2388402004547906</v>
+        <v>0.2387930313341994</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2911779467001558</v>
+        <v>0.2897914622523018</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>498</v>
@@ -2302,19 +2302,19 @@
         <v>401499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>369200</v>
+        <v>369071</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>436122</v>
+        <v>437028</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2465835522426577</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2267465720497366</v>
+        <v>0.2266674494508614</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2678473311682995</v>
+        <v>0.2684038870273139</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>614999</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>591138</v>
+        <v>591646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>639809</v>
+        <v>637464</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7717214432868708</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7417803392028008</v>
+        <v>0.7424171700410473</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8028542239087381</v>
+        <v>0.7999122407313438</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>754</v>
@@ -2352,19 +2352,19 @@
         <v>611751</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>589266</v>
+        <v>590418</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>632776</v>
+        <v>632815</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7358692084457382</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7088220532998439</v>
+        <v>0.7102085377476983</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7611597995452093</v>
+        <v>0.7612069686658006</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1325</v>
@@ -2373,19 +2373,19 @@
         <v>1226750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1192127</v>
+        <v>1191221</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1259049</v>
+        <v>1259178</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7534164477573422</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7321526688317006</v>
+        <v>0.7315961129726861</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7732534279502635</v>
+        <v>0.7733325505491385</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>417039</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>377142</v>
+        <v>380447</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>454720</v>
+        <v>454701</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1181186697784378</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1068185570819563</v>
+        <v>0.1077546334598804</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1287911694141884</v>
+        <v>0.1287857498224974</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>783</v>
@@ -2498,19 +2498,19 @@
         <v>504807</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>472074</v>
+        <v>472229</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>543858</v>
+        <v>542716</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1353710931703766</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.126593354503137</v>
+        <v>0.1266349277073406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1458432072063873</v>
+        <v>0.1455368514865209</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1243</v>
@@ -2519,19 +2519,19 @@
         <v>921846</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>866046</v>
+        <v>873457</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>972321</v>
+        <v>978371</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1269806018524633</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1192943230172539</v>
+        <v>0.1203151688230486</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1339332982770171</v>
+        <v>0.1347667107535396</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3113641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3075960</v>
+        <v>3075979</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3153538</v>
+        <v>3150233</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8818813302215621</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8712088305858121</v>
+        <v>0.8712142501775024</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8931814429180436</v>
+        <v>0.8922453665401194</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4572</v>
@@ -2569,19 +2569,19 @@
         <v>3224253</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3185202</v>
+        <v>3186344</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3256986</v>
+        <v>3256831</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8646289068296235</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8541567927936129</v>
+        <v>0.8544631485134778</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.873406645496863</v>
+        <v>0.8733650722926589</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7486</v>
@@ -2590,19 +2590,19 @@
         <v>6337894</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6287419</v>
+        <v>6281369</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6393694</v>
+        <v>6386283</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8730193981475366</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8660667017229831</v>
+        <v>0.8652332892464606</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8807056769827457</v>
+        <v>0.8796848311769514</v>
       </c>
     </row>
     <row r="30">
